--- a/config/file_config.xlsx
+++ b/config/file_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\uipath-test2\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503E5C2-4099-4D0E-B0A7-D308C852C7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DAAE81-29AD-4E81-854D-7A4662FAA934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -357,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +393,11 @@
         <v>123456</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>818961</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
